--- a/ExcelDownload/MyEarthExcel.xlsx
+++ b/ExcelDownload/MyEarthExcel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
   <si>
     <t>ReferenceCode</t>
   </si>
@@ -464,71 +464,109 @@
     <t>2 kg</t>
   </si>
   <si>
-    <t>SNI-PIN-CAKE-01</t>
+    <t>ImgURL1</t>
   </si>
   <si>
-    <t>Sniggle Pineapple Cake with Cherry Toppings (Half Kg)</t>
+    <t>ImgURL2</t>
+  </si>
+  <si>
+    <t>ImgURL3</t>
+  </si>
+  <si>
+    <t>ImgURL4</t>
+  </si>
+  <si>
+    <t>ImgURL5</t>
+  </si>
+  <si>
+    <t>ImgURL6</t>
+  </si>
+  <si>
+    <t>SNI-mg-002</t>
+  </si>
+  <si>
+    <t>Ceramic Coffee Mug</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>1000.00</t>
+    <t>399.00</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Order Pineapple Cake with Cherry Toppings Half Kg Online at Best Price |Sniggle Cakes</t>
+    <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve"> Order Pineapple Cake with Cherry Toppings (Half Kg) online at best price from sniggle.in Jaipur in India Buy/Send Cakes Online, Order Now: +91 9929997943</t>
+    <t>Christmas Mug</t>
   </si>
   <si>
-    <t>sniggle-pineapple-cake-with-cherry-toppings-half-kg</t>
+    <t>Ceramic Mug</t>
   </si>
   <si>
-    <t>&lt;div class="pdp-description" style="box-sizing: border-box; font-size: 16px; line-height: 1.4; color: rgb(79, 79, 79); font-family: Montserrat-Light; letter-spacing: 0.3px; margin-top: 16px;"&gt;
-	&lt;p font-size:="" open="" style="box-sizing: border-box; margin-top: 0px; margin-bottom: 16px; color: rgb(119, 119, 119);"&gt;
-		&lt;span style="box-sizing: border-box; font-weight: bolder; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;SNIGGLE &lt;/span&gt;&lt;span style="box-sizing: border-box; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px; background-color: rgb(244, 244, 244);"&gt;This delicious pineapple cake can be the perfect treat for any special occasion. It weighs 500 gms and is also available in 1 kg and 2 kg variants. It is garnished with glazed red cherries and yummy pineapple slices. Key attributes:&lt;/span&gt;&lt;/p&gt;
-	&lt;p font-size:="" open="" style="box-sizing: border-box; margin-top: 0px; margin-bottom: 16px; color: rgb(119, 119, 119);"&gt;
-		&lt;span style="color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px; letter-spacing: 0.3px;"&gt;Weight : 0.5 Kg&lt;/span&gt;&lt;/p&gt;
-	&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; letter-spacing: 0.3px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
-		Flavours : Pineapple&lt;/p&gt;
-	&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; letter-spacing: 0.3px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
-		Shape : Round&lt;/p&gt;
-	&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; letter-spacing: 0.3px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
-		Type : Eggless&lt;/p&gt;
-	&lt;p font-size:="" open="" style="box-sizing: border-box; margin-top: 0px; margin-bottom: 16px; color: rgb(119, 119, 119);"&gt;
-		 &lt;/p&gt;
-&lt;/div&gt;
-&lt;p&gt;
-	 &lt;/p&gt;
+    <t>ceramic-christmas-mug</t>
+  </si>
+  <si>
+    <t>&lt;p font-size:="" open="" style="box-sizing: border-box; margin-top: 0px; margin-bottom: 16px; color: rgb(119, 119, 119); font-family: "Open Sans", sans-serif; font-size: 14px;"&gt;
+	&lt;span style="box-sizing: border-box; font-weight: bolder; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;SNIGGLE &lt;/span&gt;&lt;span style="box-sizing: border-box; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px; background-color: rgb(244, 244, 244);"&gt;presents customized coffee mugs to gift on new year or any occasion. Let every sip taken from mug remind you and your friends &amp; family about your innovative gesture. We have wonderful online coffee mugs printing services which enables you to add your own custom designs and get it printed.&lt;/span&gt;&lt;/p&gt;
+&lt;p font-size:="" open="" style="box-sizing: border-box; margin-top: 0px; margin-bottom: 16px; color: rgb(119, 119, 119); font-family: "Open Sans", sans-serif; font-size: 14px;"&gt;
+	&lt;span style="box-sizing: border-box; font-weight: bolder;"&gt;Product Details&lt;/span&gt;&lt;/p&gt;
+&lt;p font-size:="" open="" style="box-sizing: border-box; margin-top: 0px; margin-bottom: 16px; color: rgb(119, 119, 119); font-family: "Open Sans", sans-serif; font-size: 14px;"&gt;
+	&lt;span style="box-sizing: border-box; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;Capacity                 325ml&lt;/span&gt;&lt;/p&gt;
+&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+	Material                   Ceramic&lt;/p&gt;
+&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+	Style                       White Handle Mug &lt;/p&gt;
+&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+	Brand                      SNIGGLE&lt;/p&gt;
+&lt;p style="box-sizing: border-box; margin: 0px 0px 10px; -webkit-font-smoothing: antialiased; -webkit-tap-highlight-color: transparent; padding: 0px; border: 0px; outline: 0px; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+	Care Instructions     &lt;span style="box-sizing: border-box; color: rgb(34, 34, 34); font-family: Arial, Verdana, sans-serif; font-size: 12px;"&gt;Microwave and dishwasher safe. &lt;/span&gt;&lt;span style="box-sizing: border-box; color: rgb(34, 34, 34); font-family: Arial, Verdana, sans-serif; font-size: 12px;"&gt;Clean it with a sponge. Do not scrub.&lt;/span&gt;&lt;/p&gt;
 </t>
   </si>
   <si>
-    <t>52928</t>
+    <t>1755</t>
   </si>
   <si>
     <t>False</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>https://ik.imagekit.io/sniggle/img/Mugs/7090.jpg</t>
   </si>
   <si>
-    <t>122385</t>
+    <t>SNI-mg-003</t>
   </si>
   <si>
-    <t>500.00</t>
+    <t>ceramic-mugs</t>
   </si>
   <si>
-    <t>122386</t>
+    <t>&lt;p&gt;
+	&lt;span style="box-sizing: border-box; font-weight: bolder; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;SNIGGLE &lt;/span&gt;&lt;span style="color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px; background-color: rgb(244, 244, 244);"&gt;presents customized coffee mugs to gift on new year and any occasion. Let every sip taken from mug remind your friends and family about your innovative gesture. We have wonderful online coffee mugs printing services which enables you to add your own custom designs and get it printed.&lt;/span&gt;&lt;/p&gt;
+</t>
   </si>
   <si>
-    <t>1500.00</t>
+    <t>1756</t>
   </si>
   <si>
-    <t>122387</t>
+    <t>https://ik.imagekit.io/sniggle/img/Mugs/7091.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SNI-mg-005</t>
+  </si>
+  <si>
+    <t>ceramic-mug</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;
+	&lt;span style="box-sizing: border-box; font-weight: bolder; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px;"&gt;SNIGGLE &lt;/span&gt;&lt;span style="box-sizing: border-box; color: rgb(51, 55, 69); font-family: Helvetica, Arial, sans-serif; font-size: 13px; background-color: rgb(244, 244, 244);"&gt;presents customized coffee mugs to gift on new year and any occasion. Let every sip taken from mug remind your friends and family about your innovative gesture. We have wonderful online coffee mugs printing services which enables you to add your own custom designs and get it printed.&lt;/span&gt;&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>1758</t>
+  </si>
+  <si>
+    <t>https://ik.imagekit.io/sniggle/img/Mugs/7093.jpg</t>
   </si>
   <si>
     <t>e-iceblue Inc. 2002-2022 All rights reserverd</t>
@@ -964,11 +1002,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:AO1000"/>
+  <dimension ref="A1:AU1000"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" view="normal" workbookViewId="0">
+    <sheetView topLeftCell="AD1" view="normal" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO1" sqref="AO1"/>
+      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" customHeight="1" defaultRowHeight="15" baseColWidth="0"/>
@@ -1009,7 +1047,7 @@
     <col min="38" max="38" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="21" ht="15">
+    <row r="1" spans="1:47" s="21" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,28 +1171,46 @@
       <c r="AO1" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" s="21" ht="15">
-      <c r="A2" s="6" t="s">
+      <c r="AP1" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="AR1" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="AS1" s="19" t="s">
         <v>150</v>
       </c>
+      <c r="AT1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU1" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="21" ht="15">
+      <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>156</v>
+      </c>
       <c r="E2" s="24" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>38</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
@@ -1166,7 +1222,7 @@
         <v>44</v>
       </c>
       <c r="O2" s="24" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
@@ -1188,44 +1244,59 @@
       <c r="AC2" s="24"/>
       <c r="AD2" s="24"/>
       <c r="AE2" s="29" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AF2" s="24" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AG2" s="24" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AH2" s="33" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AI2" s="24" t="s">
         <v>44</v>
       </c>
       <c r="AJ2" s="24" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="AK2" s="24" t="s">
         <v>38</v>
       </c>
       <c r="AL2" s="24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AM2" s="30"/>
       <c r="AN2" s="30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" s="21" ht="15">
+      <c r="AP2" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="21" ht="15">
       <c r="A3" s="6" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
@@ -1233,26 +1304,18 @@
       <c r="L3" s="24"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="P3" s="24"/>
-      <c r="Q3" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="31"/>
       <c r="U3" s="24" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="V3" s="24"/>
       <c r="W3" s="24" t="s">
@@ -1265,35 +1328,60 @@
       <c r="AB3" s="32"/>
       <c r="AC3" s="24"/>
       <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
+      <c r="AE3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH3" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI3" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="AJ3" s="24" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="AK3" s="24" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="AL3" s="24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AM3" s="30"/>
       <c r="AN3" s="30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" s="21" ht="15">
+      <c r="AP3" s="21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="21" ht="15">
       <c r="A4" s="36" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="B4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -1301,26 +1389,18 @@
       <c r="L4" s="24"/>
       <c r="M4" s="30"/>
       <c r="N4" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="P4" s="24"/>
-      <c r="Q4" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="31"/>
       <c r="U4" s="24" t="s">
-        <v>151</v>
+        <v>38</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="24" t="s">
@@ -1333,92 +1413,75 @@
       <c r="AB4" s="32"/>
       <c r="AC4" s="24"/>
       <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
+      <c r="AE4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH4" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI4" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="AJ4" s="24" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="AK4" s="24" t="s">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="AL4" s="24" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AM4" s="30"/>
       <c r="AN4" s="30" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" s="21" ht="15">
-      <c r="A5" s="36" t="s">
-        <v>147</v>
+      <c r="AP4" s="21" t="s">
+        <v>175</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="R5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK5" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL5" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="30" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="5" spans="1:38" s="21" ht="15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
     </row>
     <row r="6" spans="1:38" s="21" ht="15">
       <c r="A6" s="14"/>
@@ -47950,7 +48013,7 @@
     </row>
     <row r="2" spans="2:2" s="21" customFormat="1">
       <c r="B2" s="37" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="2:2" s="21" customFormat="1">

--- a/ExcelDownload/MyEarthExcel.xlsx
+++ b/ExcelDownload/MyEarthExcel.xlsx
@@ -702,39 +702,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
@@ -1146,81 +1113,79 @@
       <c r="A2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="N2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="24" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="29" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AH2" s="33" t="s">
+      <c r="AH2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AI2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="21" t="s">
         <v>38</v>
       </c>
       <c r="AP2" s="21" t="s">
@@ -47865,12 +47830,12 @@
   <sheetFormatPr customHeight="1" defaultRowHeight="12.75" baseColWidth="0"/>
   <sheetData>
     <row r="1" spans="2:2" s="21" customFormat="1">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="2:2" s="21" customFormat="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="23" t="s">
         <v>166</v>
       </c>
     </row>
@@ -47880,7 +47845,7 @@
       </c>
     </row>
     <row r="5" spans="2:2" s="21" customFormat="1">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="24" t="s">
         <v>68</v>
       </c>
     </row>
@@ -47890,7 +47855,7 @@
       </c>
     </row>
     <row r="8" spans="2:2" s="21" customFormat="1">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="24" t="s">
         <v>70</v>
       </c>
     </row>
@@ -47900,7 +47865,7 @@
       </c>
     </row>
     <row r="11" spans="2:2" s="21" customFormat="1">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="24" t="s">
         <v>72</v>
       </c>
     </row>
